--- a/2_metal_balance/data/%E5%8D%97%E5%9B%BD%E9%93%9C%E4%B8%9A5%E6%9C%88%E4%BB%BD%E7%BB%93%E5%AD%98%E7%89%A9%E6%96%99%E5%8C%96%E9%AA%8C%E6%95%B0%E6%8D%AE.xlsx
+++ b/2_metal_balance/data/%E5%8D%97%E5%9B%BD%E9%93%9C%E4%B8%9A5%E6%9C%88%E4%BB%BD%E7%BB%93%E5%AD%98%E7%89%A9%E6%96%99%E5%8C%96%E9%AA%8C%E6%95%B0%E6%8D%AE.xlsx
@@ -340,21 +340,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="13">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_ "/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="184" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +403,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +423,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -423,6 +444,12 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,7 +475,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -456,62 +483,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,18 +499,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -555,7 +528,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,11 +595,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -597,7 +624,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +660,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,19 +726,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,97 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,15 +961,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -959,6 +977,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,36 +1045,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1035,97 +1062,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0">
@@ -1134,63 +1161,63 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,10 +1233,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1248,7 +1275,7 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,7 +1284,7 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1269,7 +1296,7 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,13 +1305,13 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1320,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,16 +1341,16 @@
     <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1332,7 +1359,7 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,118 +1389,154 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="14" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1832,23 +1895,23 @@
   <sheetPr/>
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" style="88" customWidth="1"/>
-    <col min="2" max="2" width="6" style="88" customWidth="1"/>
-    <col min="3" max="3" width="21.2545454545455" style="88" customWidth="1"/>
-    <col min="4" max="8" width="12" style="88" customWidth="1"/>
-    <col min="9" max="9" width="13.6363636363636" style="88" customWidth="1"/>
-    <col min="10" max="10" width="9.37272727272727" style="88"/>
-    <col min="11" max="16379" width="9" style="88"/>
-    <col min="16380" max="16384" width="9" style="89"/>
+    <col min="1" max="1" width="5.12727272727273" style="96" customWidth="1"/>
+    <col min="2" max="2" width="6" style="96" customWidth="1"/>
+    <col min="3" max="3" width="21.2545454545455" style="96" customWidth="1"/>
+    <col min="4" max="8" width="12" style="96" customWidth="1"/>
+    <col min="9" max="9" width="13.6363636363636" style="96" customWidth="1"/>
+    <col min="10" max="10" width="9.37272727272727" style="96"/>
+    <col min="11" max="16379" width="9" style="96"/>
+    <col min="16380" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="1" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,7 +1923,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="2" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1935,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="3" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1962,7 @@
       </c>
       <c r="I3" s="50"/>
     </row>
-    <row r="4" s="88" customFormat="1" ht="24" customHeight="1" spans="1:9">
+    <row r="4" s="96" customFormat="1" ht="24" customHeight="1" spans="1:9">
       <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1922,7 +1985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="5" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +2015,7 @@
         <v>35937.151</v>
       </c>
     </row>
-    <row r="6" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="6" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
@@ -1978,7 +2041,7 @@
         <v>187.616</v>
       </c>
     </row>
-    <row r="7" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="7" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
@@ -2000,7 +2063,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="8" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="8" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
@@ -2026,7 +2089,7 @@
         <v>109.783</v>
       </c>
     </row>
-    <row r="9" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="9" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="10" t="s">
@@ -2046,7 +2109,7 @@
         <v>39.18</v>
       </c>
     </row>
-    <row r="10" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="10" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A10" s="12"/>
       <c r="B10" s="16" t="s">
         <v>21</v>
@@ -2074,7 +2137,7 @@
         <v>528.902</v>
       </c>
     </row>
-    <row r="11" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="11" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A11" s="12"/>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
@@ -2099,7 +2162,7 @@
       </c>
       <c r="J11" s="50"/>
     </row>
-    <row r="12" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="12" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="16"/>
       <c r="C12" s="18" t="s">
@@ -2124,7 +2187,7 @@
       </c>
       <c r="J12" s="50"/>
     </row>
-    <row r="13" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="13" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A13" s="12"/>
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
@@ -2143,7 +2206,7 @@
       </c>
       <c r="J13" s="50"/>
     </row>
-    <row r="14" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="14" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A14" s="12"/>
       <c r="B14" s="16"/>
       <c r="C14" s="18" t="s">
@@ -2168,7 +2231,7 @@
       </c>
       <c r="J14" s="50"/>
     </row>
-    <row r="15" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="15" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A15" s="12"/>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
@@ -2193,7 +2256,7 @@
       </c>
       <c r="J15" s="50"/>
     </row>
-    <row r="16" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="16" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A16" s="12"/>
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
@@ -2218,7 +2281,7 @@
       </c>
       <c r="J16" s="50"/>
     </row>
-    <row r="17" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="17" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A17" s="12"/>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
@@ -2243,7 +2306,7 @@
       </c>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="18" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A18" s="12"/>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
@@ -2268,7 +2331,7 @@
       </c>
       <c r="J18" s="50"/>
     </row>
-    <row r="19" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="19" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A19" s="12"/>
       <c r="B19" s="16"/>
       <c r="C19" s="18" t="s">
@@ -2293,7 +2356,7 @@
       </c>
       <c r="J19" s="50"/>
     </row>
-    <row r="20" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="20" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A20" s="12"/>
       <c r="B20" s="16"/>
       <c r="C20" s="21" t="s">
@@ -2318,7 +2381,7 @@
       </c>
       <c r="J20" s="50"/>
     </row>
-    <row r="21" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="21" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A21" s="12"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
@@ -2343,7 +2406,7 @@
       </c>
       <c r="J21" s="50"/>
     </row>
-    <row r="22" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="22" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A22" s="12"/>
       <c r="B22" s="16"/>
       <c r="C22" s="21" t="s">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="J22" s="50"/>
     </row>
-    <row r="23" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="23" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="C23" s="21" t="s">
@@ -2393,7 +2456,7 @@
       </c>
       <c r="J23" s="50"/>
     </row>
-    <row r="24" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="24" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="C24" s="21" t="s">
@@ -2418,7 +2481,7 @@
       </c>
       <c r="J24" s="50"/>
     </row>
-    <row r="25" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="25" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A25" s="12"/>
       <c r="B25" s="16"/>
       <c r="C25" s="21" t="s">
@@ -2443,7 +2506,7 @@
       </c>
       <c r="J25" s="50"/>
     </row>
-    <row r="26" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="26" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A26" s="12"/>
       <c r="B26" s="16"/>
       <c r="C26" s="21" t="s">
@@ -2462,7 +2525,7 @@
       </c>
       <c r="J26" s="50"/>
     </row>
-    <row r="27" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="27" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A27" s="12"/>
       <c r="B27" s="16"/>
       <c r="C27" s="21" t="s">
@@ -2487,7 +2550,7 @@
       </c>
       <c r="J27" s="50"/>
     </row>
-    <row r="28" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="28" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A28" s="12"/>
       <c r="B28" s="16"/>
       <c r="C28" s="21" t="s">
@@ -2508,7 +2571,7 @@
       </c>
       <c r="J28" s="50"/>
     </row>
-    <row r="29" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="29" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A29" s="12"/>
       <c r="B29" s="16"/>
       <c r="C29" s="21" t="s">
@@ -2531,7 +2594,7 @@
       </c>
       <c r="J29" s="50"/>
     </row>
-    <row r="30" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="30" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A30" s="23"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18" t="s">
@@ -2558,7 +2621,7 @@
       </c>
       <c r="J30" s="50"/>
     </row>
-    <row r="31" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="31" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A31" s="23"/>
       <c r="B31" s="16"/>
       <c r="C31" s="18" t="s">
@@ -2577,7 +2640,7 @@
       </c>
       <c r="J31" s="50"/>
     </row>
-    <row r="32" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="32" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A32" s="23"/>
       <c r="B32" s="16"/>
       <c r="C32" s="18" t="s">
@@ -2604,7 +2667,7 @@
       </c>
       <c r="J32" s="50"/>
     </row>
-    <row r="33" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="33" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A33" s="23"/>
       <c r="B33" s="16"/>
       <c r="C33" s="18" t="s">
@@ -2627,7 +2690,7 @@
       </c>
       <c r="J33" s="50"/>
     </row>
-    <row r="34" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="34" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A34" s="23"/>
       <c r="B34" s="16"/>
       <c r="C34" s="18" t="s">
@@ -2654,7 +2717,7 @@
       </c>
       <c r="J34" s="50"/>
     </row>
-    <row r="35" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="35" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A35" s="23"/>
       <c r="B35" s="24" t="s">
         <v>47</v>
@@ -2671,7 +2734,7 @@
       </c>
       <c r="J35" s="50"/>
     </row>
-    <row r="36" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="36" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A36" s="12"/>
       <c r="B36" s="27" t="s">
         <v>15</v>
@@ -2692,9 +2755,9 @@
         <f t="shared" si="0"/>
         <v>29.0146</v>
       </c>
-      <c r="J36" s="92"/>
-    </row>
-    <row r="37" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+      <c r="J36" s="100"/>
+    </row>
+    <row r="37" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A37" s="12"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28" t="s">
@@ -2713,9 +2776,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J37" s="92"/>
-    </row>
-    <row r="38" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+      <c r="J37" s="100"/>
+    </row>
+    <row r="38" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A38" s="12" t="s">
         <v>50</v>
       </c>
@@ -2739,7 +2802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="39" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A39" s="12"/>
       <c r="B39" s="8" t="s">
         <v>21</v>
@@ -2754,7 +2817,7 @@
       <c r="F39" s="42">
         <v>99.57</v>
       </c>
-      <c r="G39" s="90">
+      <c r="G39" s="98">
         <v>319.29</v>
       </c>
       <c r="H39" s="42">
@@ -2766,7 +2829,7 @@
       </c>
       <c r="J39" s="50"/>
     </row>
-    <row r="40" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="40" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="30" t="s">
@@ -2779,7 +2842,7 @@
       <c r="F40" s="45">
         <v>99.57</v>
       </c>
-      <c r="G40" s="91">
+      <c r="G40" s="99">
         <v>319.29</v>
       </c>
       <c r="H40" s="45">
@@ -2791,7 +2854,7 @@
       </c>
       <c r="J40" s="50"/>
     </row>
-    <row r="41" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="41" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="30" t="s">
@@ -2816,7 +2879,7 @@
       </c>
       <c r="J41" s="50"/>
     </row>
-    <row r="42" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="42" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="17" t="s">
@@ -2840,7 +2903,7 @@
         <v>274.71</v>
       </c>
     </row>
-    <row r="43" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="43" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="17" t="s">
@@ -2866,7 +2929,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="44" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="44" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="17" t="s">
@@ -2892,7 +2955,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="45" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="45" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="17" t="s">
@@ -2914,7 +2977,7 @@
         <v>3711.9</v>
       </c>
     </row>
-    <row r="46" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="46" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="17" t="s">
@@ -2940,7 +3003,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="47" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="47" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="32" t="s">
@@ -2960,7 +3023,7 @@
         <v>8197</v>
       </c>
     </row>
-    <row r="48" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="48" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="32" t="s">
@@ -2978,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="49" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A49" s="12"/>
       <c r="B49" s="23"/>
       <c r="C49" s="32" t="s">
@@ -3000,7 +3063,7 @@
         <v>0.4125</v>
       </c>
     </row>
-    <row r="50" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="50" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A50" s="12"/>
       <c r="B50" s="33" t="s">
         <v>61</v>
@@ -3024,7 +3087,7 @@
         <v>907.3139</v>
       </c>
     </row>
-    <row r="51" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="51" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A51" s="12"/>
       <c r="B51" s="36"/>
       <c r="C51" s="17" t="s">
@@ -3042,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="52" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A52" s="23"/>
       <c r="B52" s="24" t="s">
         <v>47</v>
@@ -3058,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" s="88" customFormat="1" ht="19" customHeight="1" spans="1:9">
+    <row r="53" s="96" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A53" s="12" t="s">
         <v>64</v>
       </c>
@@ -3086,7 +3149,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="54" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="54" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A54" s="12"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
@@ -3113,7 +3176,7 @@
       </c>
       <c r="J54" s="50"/>
     </row>
-    <row r="55" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="55" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A55" s="12"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17" t="s">
@@ -3138,7 +3201,7 @@
       </c>
       <c r="J55" s="50"/>
     </row>
-    <row r="56" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="56" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A56" s="12"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17" t="s">
@@ -3161,7 +3224,7 @@
       </c>
       <c r="J56" s="50"/>
     </row>
-    <row r="57" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="57" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A57" s="12"/>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
@@ -3184,7 +3247,7 @@
       </c>
       <c r="J57" s="50"/>
     </row>
-    <row r="58" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="58" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A58" s="12"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
@@ -3209,7 +3272,7 @@
       </c>
       <c r="J58" s="50"/>
     </row>
-    <row r="59" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="59" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A59" s="12"/>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
@@ -3234,7 +3297,7 @@
       </c>
       <c r="J59" s="50"/>
     </row>
-    <row r="60" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="60" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A60" s="12"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
@@ -3257,7 +3320,7 @@
       </c>
       <c r="J60" s="50"/>
     </row>
-    <row r="61" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="61" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A61" s="12"/>
       <c r="B61" s="8" t="s">
         <v>61</v>
@@ -3284,7 +3347,7 @@
       </c>
       <c r="J61" s="50"/>
     </row>
-    <row r="62" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="62" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A62" s="12"/>
       <c r="B62" s="23"/>
       <c r="C62" s="18" t="s">
@@ -3309,7 +3372,7 @@
       </c>
       <c r="J62" s="50"/>
     </row>
-    <row r="63" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="63" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A63" s="23"/>
       <c r="B63" s="37" t="s">
         <v>47</v>
@@ -3323,7 +3386,7 @@
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
     </row>
-    <row r="64" s="88" customFormat="1" ht="19" customHeight="1" spans="1:10">
+    <row r="64" s="96" customFormat="1" ht="19" customHeight="1" spans="1:10">
       <c r="A64" s="39" t="s">
         <v>72</v>
       </c>
@@ -3337,7 +3400,7 @@
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
     </row>
-    <row r="65" s="88" customFormat="1" ht="13.5" spans="1:8">
+    <row r="65" s="96" customFormat="1" ht="13.5" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3349,7 +3412,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" s="88" customFormat="1" ht="18" spans="1:8">
+    <row r="66" s="96" customFormat="1" ht="18" spans="1:8">
       <c r="A66" s="51" t="s">
         <v>74</v>
       </c>
@@ -3361,7 +3424,7 @@
       <c r="G66" s="51"/>
       <c r="H66" s="51"/>
     </row>
-    <row r="67" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="67" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
@@ -3375,7 +3438,7 @@
       <c r="E67" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="80" t="s">
+      <c r="F67" s="86" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -3385,7 +3448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="68" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A68" s="55"/>
       <c r="B68" s="56"/>
       <c r="C68" s="54"/>
@@ -3395,7 +3458,7 @@
       <c r="E68" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F68" s="86" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -3405,7 +3468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="69" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
@@ -3413,185 +3476,185 @@
         <v>16</v>
       </c>
       <c r="C69" s="10"/>
-      <c r="D69" s="57">
+      <c r="D69" s="101">
         <v>117643.42</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="88">
         <v>8.31899565653566</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="88">
         <v>23.957677573002</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="88">
         <v>95.5985113910759</v>
       </c>
-      <c r="H69" s="81">
+      <c r="H69" s="88">
         <v>2.91239292769184</v>
       </c>
     </row>
-    <row r="70" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="70" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A70" s="10"/>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C70" s="14"/>
-      <c r="D70" s="57">
+      <c r="D70" s="101">
         <v>187.8</v>
       </c>
-      <c r="E70" s="81">
+      <c r="E70" s="88">
         <v>0.0979765708200351</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="88">
         <v>60.3967678662801</v>
       </c>
-      <c r="G70" s="81">
+      <c r="G70" s="88">
         <v>140.734265734266</v>
       </c>
-      <c r="H70" s="81">
+      <c r="H70" s="88">
         <v>0.4583830803343</v>
       </c>
     </row>
-    <row r="71" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="71" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A71" s="10"/>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="102" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="14"/>
-      <c r="D71" s="57">
+      <c r="D71" s="101">
         <v>99.74</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="88">
         <v>0</v>
       </c>
-      <c r="F71" s="81">
+      <c r="F71" s="88">
         <v>94.2650892320032</v>
       </c>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-    </row>
-    <row r="72" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+    </row>
+    <row r="72" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A72" s="10"/>
-      <c r="B72" s="58" t="s">
+      <c r="B72" s="102" t="s">
         <v>49</v>
       </c>
       <c r="C72" s="14"/>
-      <c r="D72" s="57">
+      <c r="D72" s="101">
         <v>10</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E72" s="88">
         <v>0</v>
       </c>
-      <c r="F72" s="81">
+      <c r="F72" s="88">
         <v>99.8</v>
       </c>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-    </row>
-    <row r="73" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+    </row>
+    <row r="73" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A73" s="10"/>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="102" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="14"/>
-      <c r="D73" s="93">
+      <c r="D73" s="103">
         <v>29.0146</v>
       </c>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="94">
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="105">
         <v>999900</v>
       </c>
-      <c r="H73" s="81"/>
-    </row>
-    <row r="74" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="H73" s="88"/>
+    </row>
+    <row r="74" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A74" s="10"/>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="102" t="s">
         <v>78</v>
       </c>
       <c r="C74" s="14"/>
-      <c r="D74" s="57">
+      <c r="D74" s="101">
         <v>56.44</v>
       </c>
-      <c r="E74" s="81">
+      <c r="E74" s="88">
         <v>20.8291991495393</v>
       </c>
-      <c r="F74" s="81">
+      <c r="F74" s="88">
         <v>63.980395667353</v>
       </c>
-      <c r="G74" s="81">
+      <c r="G74" s="88">
         <v>596.58938322442</v>
       </c>
-      <c r="H74" s="81">
+      <c r="H74" s="88">
         <v>0.179035001342763</v>
       </c>
     </row>
-    <row r="75" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="75" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A75" s="10"/>
-      <c r="B75" s="58" t="s">
+      <c r="B75" s="102" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="14"/>
-      <c r="D75" s="57">
+      <c r="D75" s="101">
         <v>121.74</v>
       </c>
-      <c r="E75" s="81">
+      <c r="E75" s="88">
         <v>9.82175127320519</v>
       </c>
-      <c r="F75" s="81">
+      <c r="F75" s="88">
         <v>0.909976954537588</v>
       </c>
-      <c r="G75" s="81">
+      <c r="G75" s="88">
         <v>60.4009728282157</v>
       </c>
-      <c r="H75" s="81">
+      <c r="H75" s="88">
         <v>0.628512611242178</v>
       </c>
     </row>
-    <row r="76" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+    <row r="76" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A76" s="10"/>
-      <c r="B76" s="58" t="s">
+      <c r="B76" s="102" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="14"/>
-      <c r="D76" s="57">
+      <c r="D76" s="101">
         <v>29.12</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81">
+      <c r="E76" s="88"/>
+      <c r="F76" s="88">
         <v>99.0041208791209</v>
       </c>
-      <c r="G76" s="81"/>
-      <c r="H76" s="81"/>
-    </row>
-    <row r="77" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+    </row>
+    <row r="77" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A77" s="10"/>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="82"/>
-    </row>
-    <row r="78" s="88" customFormat="1" ht="18" spans="1:8">
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+    </row>
+    <row r="78" s="96" customFormat="1" ht="18" spans="1:8">
       <c r="A78" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-    </row>
-    <row r="79" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A79" s="62" t="s">
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+    </row>
+    <row r="79" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A79" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="54" t="s">
         <v>4</v>
       </c>
@@ -3601,7 +3664,7 @@
       <c r="E79" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="80" t="s">
+      <c r="F79" s="86" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -3611,9 +3674,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
+    <row r="80" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
       <c r="C80" s="54"/>
       <c r="D80" s="54" t="s">
         <v>10</v>
@@ -3621,7 +3684,7 @@
       <c r="E80" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="80" t="s">
+      <c r="F80" s="86" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -3631,8 +3694,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A81" s="66" t="s">
+    <row r="81" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A81" s="68" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -3641,20 +3704,20 @@
       <c r="C81" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="67">
+      <c r="D81" s="104">
         <v>22573.1824</v>
       </c>
-      <c r="E81" s="81"/>
-      <c r="F81" s="83">
+      <c r="E81" s="88"/>
+      <c r="F81" s="106">
         <v>99.9977654900799</v>
       </c>
-      <c r="G81" s="81">
+      <c r="G81" s="88">
         <v>7.53841425567004</v>
       </c>
-      <c r="H81" s="83"/>
-    </row>
-    <row r="82" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A82" s="68"/>
+      <c r="H81" s="106"/>
+    </row>
+    <row r="82" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A82" s="71"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10" t="s">
         <v>63</v>
@@ -3662,17 +3725,17 @@
       <c r="D82" s="29">
         <v>330.3822</v>
       </c>
-      <c r="E82" s="81"/>
-      <c r="F82" s="83">
+      <c r="E82" s="88"/>
+      <c r="F82" s="106">
         <v>99.9953084639548</v>
       </c>
-      <c r="G82" s="81">
+      <c r="G82" s="88">
         <v>3.33553078828097</v>
       </c>
-      <c r="H82" s="81"/>
-    </row>
-    <row r="83" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A83" s="68"/>
+      <c r="H82" s="88"/>
+    </row>
+    <row r="83" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A83" s="71"/>
       <c r="B83" s="11"/>
       <c r="C83" s="14" t="s">
         <v>58</v>
@@ -3680,21 +3743,21 @@
       <c r="D83" s="29">
         <v>199.8787</v>
       </c>
-      <c r="E83" s="81">
+      <c r="E83" s="88">
         <v>30.870630537421</v>
       </c>
-      <c r="F83" s="81">
+      <c r="F83" s="88">
         <v>16.5514883547759</v>
       </c>
-      <c r="G83" s="81">
+      <c r="G83" s="88">
         <v>75357.5152242754</v>
       </c>
-      <c r="H83" s="81">
+      <c r="H83" s="88">
         <v>1617.13179641872</v>
       </c>
     </row>
-    <row r="84" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A84" s="68"/>
+    <row r="84" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A84" s="71"/>
       <c r="B84" s="11"/>
       <c r="C84" s="14" t="s">
         <v>70</v>
@@ -3702,19 +3765,19 @@
       <c r="D84" s="19">
         <v>12666.2</v>
       </c>
-      <c r="E84" s="81">
+      <c r="E84" s="88">
         <v>6.93424231419053</v>
       </c>
-      <c r="F84" s="81">
+      <c r="F84" s="88">
         <v>0.349214172674595</v>
       </c>
-      <c r="G84" s="81">
+      <c r="G84" s="88">
         <v>0.799973192838925</v>
       </c>
-      <c r="H84" s="81"/>
-    </row>
-    <row r="85" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A85" s="68"/>
+      <c r="H84" s="88"/>
+    </row>
+    <row r="85" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A85" s="71"/>
       <c r="B85" s="11"/>
       <c r="C85" s="14" t="s">
         <v>81</v>
@@ -3722,20 +3785,20 @@
       <c r="D85" s="19">
         <v>31295.02</v>
       </c>
-      <c r="E85" s="81">
+      <c r="E85" s="88">
         <v>8.42049310081923</v>
       </c>
-      <c r="F85" s="81">
+      <c r="F85" s="88">
         <v>0.204798877871725</v>
       </c>
-      <c r="G85" s="81">
+      <c r="G85" s="88">
         <v>1.00000610610846</v>
       </c>
-      <c r="H85" s="81"/>
-    </row>
-    <row r="86" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A86" s="69"/>
-      <c r="B86" s="70" t="s">
+      <c r="H85" s="88"/>
+    </row>
+    <row r="86" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A86" s="75"/>
+      <c r="B86" s="76" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -3744,52 +3807,52 @@
       <c r="D86" s="19">
         <v>69.2</v>
       </c>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81">
+      <c r="E86" s="88"/>
+      <c r="F86" s="88">
         <v>4.20953757225433</v>
       </c>
-      <c r="G86" s="81">
+      <c r="G86" s="88">
         <v>98.3959537572254</v>
       </c>
-      <c r="H86" s="81">
+      <c r="H86" s="88">
         <v>0.260115606936416</v>
       </c>
     </row>
-    <row r="87" s="88" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A87" s="71"/>
-      <c r="B87" s="72" t="s">
+    <row r="87" s="96" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A87" s="77"/>
+      <c r="B87" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-    </row>
-    <row r="88" s="88" customFormat="1"/>
-    <row r="89" s="88" customFormat="1"/>
-    <row r="90" s="88" customFormat="1"/>
-    <row r="91" s="88" customFormat="1"/>
-    <row r="92" s="88" customFormat="1"/>
-    <row r="93" s="88" customFormat="1"/>
-    <row r="94" s="88" customFormat="1"/>
-    <row r="95" s="88" customFormat="1"/>
-    <row r="96" s="88" customFormat="1"/>
-    <row r="97" s="88" customFormat="1"/>
-    <row r="98" s="88" customFormat="1"/>
-    <row r="99" s="88" customFormat="1"/>
-    <row r="100" s="88" customFormat="1"/>
-    <row r="101" s="88" customFormat="1"/>
-    <row r="102" s="88" customFormat="1" ht="13" spans="3:8">
-      <c r="C102" s="77"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-    </row>
-    <row r="103" s="88" customFormat="1" spans="3:8">
+      <c r="C87" s="79"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+    </row>
+    <row r="88" s="96" customFormat="1"/>
+    <row r="89" s="96" customFormat="1"/>
+    <row r="90" s="96" customFormat="1"/>
+    <row r="91" s="96" customFormat="1"/>
+    <row r="92" s="96" customFormat="1"/>
+    <row r="93" s="96" customFormat="1"/>
+    <row r="94" s="96" customFormat="1"/>
+    <row r="95" s="96" customFormat="1"/>
+    <row r="96" s="96" customFormat="1"/>
+    <row r="97" s="96" customFormat="1"/>
+    <row r="98" s="96" customFormat="1"/>
+    <row r="99" s="96" customFormat="1"/>
+    <row r="100" s="96" customFormat="1"/>
+    <row r="101" s="96" customFormat="1"/>
+    <row r="102" s="96" customFormat="1" ht="13" spans="3:8">
+      <c r="C102" s="83"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
+    </row>
+    <row r="103" s="96" customFormat="1" spans="3:8">
       <c r="C103" s="50"/>
       <c r="D103" s="50"/>
       <c r="E103" s="50"/>
@@ -3797,7 +3860,7 @@
       <c r="G103" s="50"/>
       <c r="H103" s="50"/>
     </row>
-    <row r="104" s="88" customFormat="1" spans="3:8">
+    <row r="104" s="96" customFormat="1" spans="3:8">
       <c r="C104" s="50"/>
       <c r="D104" s="50"/>
       <c r="E104" s="50"/>
@@ -3805,13 +3868,13 @@
       <c r="G104" s="50"/>
       <c r="H104" s="50"/>
     </row>
-    <row r="105" s="88" customFormat="1" ht="13" spans="3:8">
-      <c r="C105" s="75"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="87"/>
+    <row r="105" s="96" customFormat="1" ht="13" spans="3:8">
+      <c r="C105" s="81"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3867,8 +3930,8 @@
   <sheetPr/>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -4743,7 +4806,7 @@
         <v>6.65</v>
       </c>
       <c r="I38" s="50">
-        <f t="shared" ref="I38:I69" si="1">(D38*(100-E38)/100)</f>
+        <f t="shared" ref="I38:I80" si="1">(D38*(100-E38)/100)</f>
         <v>5234.38</v>
       </c>
     </row>
@@ -5383,7 +5446,7 @@
       <c r="E67" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="80" t="s">
+      <c r="F67" s="86" t="s">
         <v>7</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -5407,7 +5470,7 @@
       <c r="E68" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="80" t="s">
+      <c r="F68" s="86" t="s">
         <v>11</v>
       </c>
       <c r="G68" s="5" t="s">
@@ -5425,23 +5488,23 @@
       <c r="A69" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="57">
+      <c r="C69" s="57"/>
+      <c r="D69" s="58">
         <v>98261.76</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="87">
         <v>7.26719834857425</v>
       </c>
-      <c r="F69" s="81">
+      <c r="F69" s="87">
         <v>24.2726203608014</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="87">
         <v>92.9671083191764</v>
       </c>
-      <c r="H69" s="81">
+      <c r="H69" s="87">
         <v>1.25527756354161</v>
       </c>
       <c r="I69" s="50">
@@ -5451,63 +5514,63 @@
     </row>
     <row r="70" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A70" s="10"/>
-      <c r="B70" s="58" t="s">
+      <c r="B70" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="57">
+      <c r="C70" s="60"/>
+      <c r="D70" s="58">
         <v>125.66</v>
       </c>
-      <c r="E70" s="81">
+      <c r="E70" s="87">
         <v>25.8713990132102</v>
       </c>
-      <c r="F70" s="81">
+      <c r="F70" s="87">
         <v>64.5260332796565</v>
       </c>
-      <c r="G70" s="81">
+      <c r="G70" s="87">
         <v>581.29898013956</v>
       </c>
-      <c r="H70" s="81">
+      <c r="H70" s="87">
         <v>0.128824476650564</v>
       </c>
       <c r="I70" s="50">
-        <f>(D70*(100-E70)/100)</f>
+        <f t="shared" si="1"/>
         <v>93.15</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A71" s="10"/>
-      <c r="B71" s="58" t="s">
+      <c r="B71" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="57">
+      <c r="C71" s="60"/>
+      <c r="D71" s="58">
         <v>3.34</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81">
+      <c r="E71" s="87"/>
+      <c r="F71" s="87">
         <v>99.99</v>
       </c>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
+      <c r="G71" s="87"/>
+      <c r="H71" s="87"/>
       <c r="I71" s="50">
-        <f>(D71*(100-E71)/100)</f>
+        <f t="shared" si="1"/>
         <v>3.34</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A72" s="10"/>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
       <c r="I72" s="50">
-        <f>(D72*(100-E72)/100)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5515,23 +5578,23 @@
       <c r="A73" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="50">
-        <f>(D73*(100-E73)/100)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="63"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="54" t="s">
         <v>4</v>
       </c>
@@ -5541,7 +5604,7 @@
       <c r="E74" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="80" t="s">
+      <c r="F74" s="86" t="s">
         <v>7</v>
       </c>
       <c r="G74" s="5" t="s">
@@ -5551,13 +5614,13 @@
         <v>9</v>
       </c>
       <c r="I74" s="50" t="e">
-        <f>(D74*(100-E74)/100)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="75" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
       <c r="C75" s="54"/>
       <c r="D75" s="54" t="s">
         <v>10</v>
@@ -5565,7 +5628,7 @@
       <c r="E75" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="80" t="s">
+      <c r="F75" s="86" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="5" t="s">
@@ -5575,165 +5638,165 @@
         <v>12</v>
       </c>
       <c r="I75" s="50" t="e">
-        <f>(D75*(100-E75)/100)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="68" t="s">
         <v>80</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="67">
+      <c r="D76" s="70">
         <v>23308.5381</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="83">
+      <c r="E76" s="90"/>
+      <c r="F76" s="91">
         <v>99.997882321071</v>
       </c>
-      <c r="G76" s="81">
+      <c r="G76" s="90">
         <v>5.67963548087128</v>
       </c>
-      <c r="H76" s="83"/>
+      <c r="H76" s="91"/>
       <c r="I76" s="50">
-        <f>(D76*(100-E76)/100)</f>
+        <f t="shared" si="1"/>
         <v>23308.5381</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A77" s="68"/>
+      <c r="A77" s="71"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="72">
         <v>351.4071</v>
       </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="83">
+      <c r="E77" s="90"/>
+      <c r="F77" s="91">
         <v>99.9837510397485</v>
       </c>
-      <c r="G77" s="81">
+      <c r="G77" s="90">
         <v>2.16273376377427</v>
       </c>
-      <c r="H77" s="81"/>
+      <c r="H77" s="90"/>
       <c r="I77" s="50">
-        <f>(D77*(100-E77)/100)</f>
+        <f t="shared" si="1"/>
         <v>351.4071</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A78" s="68"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="74">
         <v>11871.18</v>
       </c>
-      <c r="E78" s="81">
+      <c r="E78" s="90">
         <v>6.19679762247729</v>
       </c>
-      <c r="F78" s="81">
+      <c r="F78" s="90">
         <v>0.409607179602403</v>
       </c>
-      <c r="G78" s="81">
+      <c r="G78" s="90">
         <v>2.50001189883173</v>
       </c>
-      <c r="H78" s="81"/>
+      <c r="H78" s="90"/>
       <c r="I78" s="50">
-        <f>(D78*(100-E78)/100)</f>
+        <f t="shared" si="1"/>
         <v>11135.547</v>
       </c>
     </row>
     <row r="79" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A79" s="68"/>
+      <c r="A79" s="71"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="74">
         <v>32166.46</v>
       </c>
-      <c r="E79" s="81">
+      <c r="E79" s="90">
         <v>8.26052353911496</v>
       </c>
-      <c r="F79" s="81">
+      <c r="F79" s="90">
         <v>0.222248262939919</v>
       </c>
-      <c r="G79" s="81">
+      <c r="G79" s="90">
         <v>0.792460909497745</v>
       </c>
-      <c r="H79" s="81"/>
+      <c r="H79" s="90"/>
       <c r="I79" s="50">
-        <f>(D79*(100-E79)/100)</f>
+        <f t="shared" si="1"/>
         <v>29509.342</v>
       </c>
     </row>
     <row r="80" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A80" s="69"/>
-      <c r="B80" s="70" t="s">
+      <c r="A80" s="75"/>
+      <c r="B80" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="74">
         <v>25.84</v>
       </c>
-      <c r="E80" s="81"/>
-      <c r="F80" s="81">
+      <c r="E80" s="90"/>
+      <c r="F80" s="90">
         <v>3.32043343653251</v>
       </c>
-      <c r="G80" s="81">
+      <c r="G80" s="90">
         <v>93.8854489164087</v>
       </c>
-      <c r="H80" s="81">
+      <c r="H80" s="90">
         <v>0.309597523219814</v>
       </c>
       <c r="I80" s="50">
-        <f>(D80*(100-E80)/100)</f>
+        <f t="shared" si="1"/>
         <v>25.84</v>
       </c>
     </row>
     <row r="81" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A81" s="71"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="77"/>
+      <c r="B81" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="89"/>
     </row>
     <row r="82" customFormat="1" ht="13" spans="1:8">
-      <c r="A82" s="75"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
     </row>
     <row r="83" customFormat="1"/>
     <row r="84" customFormat="1"/>
     <row r="85" customFormat="1"/>
     <row r="86" customFormat="1"/>
     <row r="87" customFormat="1" ht="13" spans="3:8">
-      <c r="C87" s="77"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
     </row>
     <row r="88" customFormat="1" spans="3:8">
       <c r="C88" s="50"/>
@@ -5752,12 +5815,12 @@
       <c r="H89" s="50"/>
     </row>
     <row r="90" customFormat="1" ht="13" spans="3:8">
-      <c r="C90" s="75"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
-      <c r="H90" s="87"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
+      <c r="H90" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="34">
